--- a/Documentação/Relatórios AD_v3.xlsx
+++ b/Documentação/Relatórios AD_v3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745"/>
@@ -19,7 +19,7 @@
     <sheet name="Impressão Estruturada" sheetId="12" r:id="rId10"/>
     <sheet name="Plan3" sheetId="7" state="hidden" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
   <si>
     <t>Avaliação do Gestor</t>
   </si>
@@ -383,12 +383,15 @@
   <si>
     <t>Matricula</t>
   </si>
+  <si>
+    <t>OK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,6 +446,14 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -517,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,6 +563,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +612,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -649,7 +661,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -698,7 +710,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -747,7 +759,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -796,7 +808,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -845,7 +857,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -894,7 +906,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -943,7 +955,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -992,7 +1004,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1041,7 +1053,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1319,7 +1331,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1330,10 +1342,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1499,6 +1511,11 @@
       </c>
       <c r="H19" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="33.75">
+      <c r="H23" s="16" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1519,7 +1536,7 @@
   <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:D12"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2019,7 +2036,7 @@
   <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:E20"/>
+      <selection activeCell="B12" sqref="B12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2676,7 +2693,7 @@
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2827,7 +2844,7 @@
   <dimension ref="B1:Y20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Documentação/Relatórios AD_v3.xlsx
+++ b/Documentação/Relatórios AD_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Acompanhamento_Geral" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="104">
   <si>
     <t>Avaliação do Gestor</t>
   </si>
@@ -386,12 +386,18 @@
   <si>
     <t>OK</t>
   </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Falta Fazer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +460,38 @@
     <font>
       <b/>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -528,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -551,6 +589,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,7 +602,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +654,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -661,7 +703,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -710,7 +752,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -759,7 +801,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -808,7 +850,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -857,7 +899,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -906,7 +948,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -955,7 +997,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1004,7 +1046,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1053,7 +1095,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1331,7 +1373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1344,7 +1386,7 @@
   </sheetPr>
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -1356,54 +1398,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:11" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
@@ -1514,7 +1556,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="33.75">
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1533,10 +1575,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1553,50 +1595,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="4"/>
@@ -1612,16 +1654,19 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="24.75" customHeight="1">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="2:10" ht="24.75" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1688,10 +1733,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1702,46 +1747,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
@@ -1806,7 +1851,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:6">
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
@@ -1814,7 +1859,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:6">
       <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
@@ -1822,7 +1867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:6">
       <c r="B19" s="8" t="s">
         <v>37</v>
       </c>
@@ -1830,7 +1875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:6">
       <c r="B20" s="8" t="s">
         <v>36</v>
       </c>
@@ -1838,12 +1883,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:6">
       <c r="B21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="46.5">
+      <c r="F24" s="17" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1861,10 +1911,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M19"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1878,62 +1928,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="2:13">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="1" t="s">
@@ -1994,7 +2044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:6">
       <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
@@ -2002,7 +2052,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:6">
       <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
@@ -2010,12 +2060,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:6">
       <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="33.75">
+      <c r="F21" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2088,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:F12"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2049,46 +2104,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="2:9">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="2:9" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1" t="s">
@@ -2138,13 +2193,13 @@
       <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
@@ -2152,7 +2207,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:8">
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
@@ -2160,7 +2215,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:8">
       <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
@@ -2168,17 +2223,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:8">
       <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="2:5" ht="25.5" customHeight="1"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:8" ht="25.5" customHeight="1"/>
+    <row r="24" spans="2:8" ht="61.5">
+      <c r="H24" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:I4"/>
@@ -2196,10 +2256,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H20"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D23:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2213,42 +2273,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="2:8">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
@@ -2287,11 +2347,11 @@
       <c r="B15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="9" t="s">
@@ -2301,7 +2361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:6">
       <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
@@ -2309,7 +2369,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:6">
       <c r="B18" s="9" t="s">
         <v>36</v>
       </c>
@@ -2317,17 +2377,22 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:6">
       <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="2:5" ht="25.5" customHeight="1"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="2:6" ht="25.5" customHeight="1"/>
+    <row r="22" spans="2:6" ht="46.5">
+      <c r="F22" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:H4"/>
@@ -2345,10 +2410,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L19"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2361,58 +2426,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
@@ -2466,13 +2531,13 @@
       <c r="B16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:6">
       <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
@@ -2488,12 +2553,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:6">
       <c r="B19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="61.5">
+      <c r="F25" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2514,8 +2584,8 @@
   </sheetPr>
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F19"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2529,58 +2599,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1" t="s">
@@ -2690,10 +2760,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J19"/>
+  <dimension ref="B1:J28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F28:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2706,50 +2776,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="1" t="s">
@@ -2802,7 +2872,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:7">
       <c r="B17" s="8" t="s">
         <v>39</v>
       </c>
@@ -2810,7 +2880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:7">
       <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
@@ -2818,12 +2888,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:7">
       <c r="B19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="46.5">
+      <c r="G28" s="17" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2841,10 +2916,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Y20"/>
+  <dimension ref="B1:Y27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2857,16 +2932,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="15" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
       <c r="L1" s="10"/>
@@ -2885,14 +2960,14 @@
       <c r="Y1" s="10"/>
     </row>
     <row r="2" spans="2:25" ht="12.75" customHeight="1">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
@@ -2911,14 +2986,14 @@
       <c r="Y2" s="10"/>
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
@@ -2937,14 +3012,14 @@
       <c r="Y3" s="10"/>
     </row>
     <row r="4" spans="2:25" ht="12.75" customHeight="1">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -2968,22 +3043,22 @@
       </c>
     </row>
     <row r="8" spans="2:25">
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14" t="s">
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="2:25">
       <c r="B9" s="1" t="s">
@@ -3151,6 +3226,11 @@
     <row r="20" spans="2:14">
       <c r="N20" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="46.5">
+      <c r="K27" s="18" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
